--- a/biology/Zoologie/Cottus_bairdii/Cottus_bairdii.xlsx
+++ b/biology/Zoologie/Cottus_bairdii/Cottus_bairdii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chabot tacheté (Cottus bairdii) est une espèce de poissons de la famille des Cottidae présent en Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson est présent au Canada et aux États-Unis.On le trouve par exemple dans le bassin du fleuve Columbia et dans la rivière Missouri.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa première nageoire dorsale est garnie d'épines et quasiment reliée à la seconde. La taille maximum de ce chabot est d'environ 15 centimètres. Comme son nom vernaculaire l'indique, le chabot est recouvert de taches sur tout son corps.
 Il se nourrit principalement de larves d'insectes mais aussi de crustacés, d'œufs de poissons ou même de petits poissons. Son régime alimentaire est également constitué de quelques végétaux. Les plus gros poissons comme la truite sont ses prédateurs. Il apprécie les eaux claires et bien oxygénées que ce soit dans des rivières de montagne ou dans des lacs dont les berges sont rocailleuses.
